--- a/MainTop/10.07.2025 новые/new.xlsx
+++ b/MainTop/10.07.2025 новые/new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\10.07.2025 новые\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\10.07.2025 новые\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E1A211-D76C-404D-A6D1-CAE8FD83BED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A23A7FC-B039-4150-9A49-D9C95F195DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MainTop/10.07.2025 новые/new.xlsx
+++ b/MainTop/10.07.2025 новые/new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\10.07.2025 новые\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E1A211-D76C-404D-A6D1-CAE8FD83BED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F195588-D8B2-43C4-A6A6-D7D1B80534D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,10 +108,6 @@
     <t>Термонаклейка Воздушный шар из пионов</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Медуза в очках и с змеями
-</t>
-  </si>
-  <si>
     <t>Термонаклейка Роза с бутоном акварель</t>
   </si>
   <si>
@@ -143,6 +139,9 @@
   </si>
   <si>
     <t>Термонаклейка Уточка с полотенцем</t>
+  </si>
+  <si>
+    <t>Термонаклейка Медуза в очках и с змеями</t>
   </si>
 </sst>
 </file>
@@ -506,7 +505,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +724,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -733,7 +732,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -741,7 +740,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -749,7 +748,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -757,7 +756,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -765,7 +764,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -773,7 +772,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -781,7 +780,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -789,7 +788,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -797,7 +796,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -805,7 +804,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -813,7 +812,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>2</v>
